--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="15480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34360"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2454,9 +2454,6 @@
     <t>Активация ЛК?</t>
   </si>
   <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=19</t>
-  </si>
-  <si>
     <t>ЛК</t>
   </si>
   <si>
@@ -3916,6 +3913,9 @@
   </si>
   <si>
     <t>Раздел "Машиночитаемая доверенность" (МЧД)?</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -4283,18 +4283,18 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:C643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A579" sqref="A579"/>
+    <sheetView tabSelected="1" topLeftCell="C517" workbookViewId="0">
+      <selection activeCell="C612" sqref="C612"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -4305,18 +4305,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -4327,18 +4327,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -4459,18 +4459,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C16" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -4525,18 +4525,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>91</v>
       </c>
       <c r="B22" t="s">
+        <v>815</v>
+      </c>
+      <c r="C22" t="s">
         <v>816</v>
       </c>
-      <c r="C22" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -4591,18 +4591,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -4624,18 +4624,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -4646,18 +4646,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -4679,18 +4679,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -4745,18 +4745,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -4789,18 +4789,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>91</v>
       </c>
       <c r="B46" t="s">
+        <v>819</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -4877,40 +4877,40 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -4932,18 +4932,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C59" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -4954,4495 +4954,4495 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>118</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>118</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>118</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>118</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>118</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>118</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>118</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>118</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>118</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>118</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>118</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>118</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>118</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>118</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>118</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>118</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>118</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>118</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>118</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>118</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>118</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>118</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>118</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>118</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>118</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>118</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>118</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>118</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>118</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>118</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>118</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>118</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>118</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>118</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>118</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>118</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>118</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>118</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>118</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>118</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>118</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>118</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>118</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>118</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>118</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>118</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>118</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>118</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>118</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>118</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>118</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>118</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>118</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>118</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>118</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>118</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>118</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>118</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>118</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>118</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>118</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>118</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>118</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>118</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>118</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>118</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>118</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>118</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>118</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>118</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>118</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>118</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>118</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>118</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>118</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>118</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>118</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>118</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>118</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>118</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>118</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>118</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>118</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>118</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>118</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>118</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>118</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>118</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>118</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>118</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>118</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>118</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>118</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>118</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>118</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>118</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>118</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>118</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>118</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>118</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>118</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>118</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>118</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>118</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>118</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>118</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>118</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>118</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>118</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>118</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>118</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>118</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>118</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>118</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>118</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>118</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>118</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>118</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>118</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>118</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>118</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>118</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>118</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>118</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>118</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>118</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>118</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>118</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>118</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>118</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>118</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>118</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>118</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>118</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>118</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>118</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>118</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>118</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>118</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>118</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>118</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>118</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>118</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>118</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>118</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>118</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>118</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>118</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>118</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>118</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>118</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>118</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>118</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>118</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>118</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>118</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>118</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>118</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>118</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>118</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>118</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>118</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>118</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>118</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>118</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>118</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>118</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>118</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>118</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>118</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>118</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>118</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>118</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>118</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>118</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>118</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>118</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>118</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>118</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>118</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>118</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>118</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>118</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>118</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>118</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>118</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>118</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>118</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>118</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>118</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>118</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>118</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>118</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>118</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>118</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>118</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>118</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>118</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>118</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>118</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>118</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>118</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>118</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>118</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>118</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>118</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>118</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>118</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>118</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>118</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>118</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>118</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>118</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>118</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>118</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>118</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>118</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>118</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>118</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>118</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>118</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>118</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>118</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>118</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>118</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>118</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>118</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>118</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>118</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>118</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>118</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>118</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>118</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>118</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>118</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>118</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>118</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>118</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>118</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>118</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>118</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>118</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>118</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>118</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>118</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>118</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>118</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>118</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>118</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>118</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>118</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>118</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>118</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>118</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>118</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>118</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>118</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>118</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>118</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>118</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>118</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>118</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>118</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>118</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>118</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>118</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>118</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>118</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>118</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>118</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>118</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>118</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>118</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>118</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>118</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>118</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>118</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>118</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>118</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>118</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>118</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>118</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>118</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>118</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>118</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>118</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>118</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>118</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>118</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>118</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>118</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>118</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>118</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>118</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>118</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>118</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>118</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>118</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>118</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>118</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>118</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>118</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>118</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>118</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>118</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>118</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>118</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>118</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>118</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>118</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>118</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>118</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>118</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>118</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>118</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>118</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>118</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>118</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>118</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>118</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>118</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>118</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>118</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>118</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>118</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>118</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>118</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>118</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>118</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>118</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>118</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>118</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>118</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>118</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>118</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>118</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>118</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>118</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>118</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>118</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>118</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>118</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>118</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>118</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>118</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>118</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>118</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>118</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>118</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>118</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>118</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>118</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>118</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>118</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>118</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>118</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>118</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>118</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>118</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>118</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>118</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>118</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>118</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>118</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>118</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>118</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>118</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>118</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>118</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>118</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>118</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>118</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>118</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>118</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>118</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>118</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>118</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>118</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>118</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>118</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>118</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>118</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>118</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>118</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>118</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>118</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>118</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
         <v>118</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>118</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>80</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>80</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>80</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>521</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>521</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>521</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>521</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>521</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>521</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>521</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>521</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>521</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>521</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>521</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>521</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>521</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>521</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>521</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>521</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>521</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>521</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>521</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>521</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>521</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>521</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>521</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>521</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>521</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>521</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>521</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>521</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>521</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>521</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>521</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>521</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>521</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>521</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>521</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>521</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>521</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>521</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>521</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>521</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>521</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>521</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>521</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>521</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>521</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>521</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>521</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>521</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>521</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>521</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>521</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>521</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>521</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>521</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>521</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>521</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>521</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>521</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>521</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>521</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>521</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>521</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>521</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>521</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>521</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>521</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>521</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>521</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>521</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>521</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>521</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>521</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>521</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>521</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>521</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>521</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>521</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>521</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>521</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>521</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>521</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>521</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>521</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>521</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>521</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>521</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>521</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>95</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>95</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>79</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>95</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>95</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>95</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>80</v>
       </c>
@@ -10553,18 +10553,18 @@
         <v>711</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>91</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>91</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>91</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>91</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>91</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>95</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>76</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>76</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>90</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>737</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>90</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>90</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>81</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>81</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>95</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>95</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>95</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>94</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>91</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>91</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>91</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>91</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>91</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>91</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>91</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>91</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>91</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>91</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>91</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>91</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>91</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>787</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>787</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>787</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>787</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>787</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>787</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>787</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>787</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>787</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>787</v>
       </c>
@@ -11004,18 +11004,18 @@
         <v>799</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>91</v>
       </c>
       <c r="B611" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C611" s="6" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>808</v>
       </c>
@@ -11023,348 +11023,348 @@
         <v>809</v>
       </c>
       <c r="C612" s="6" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A613" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
+      <c r="B613" t="s">
+        <v>829</v>
+      </c>
+      <c r="C613" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="B613" t="s">
-        <v>830</v>
-      </c>
-      <c r="C613" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
+        <v>821</v>
+      </c>
+      <c r="B614" t="s">
+        <v>823</v>
+      </c>
+      <c r="C614" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="B614" t="s">
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A615" t="s">
+        <v>821</v>
+      </c>
+      <c r="B615" t="s">
         <v>824</v>
       </c>
-      <c r="C614" s="6" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
-        <v>822</v>
-      </c>
-      <c r="B615" t="s">
+      <c r="C615" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="C615" s="6" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>91</v>
       </c>
       <c r="B616" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C616" s="6" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>91</v>
       </c>
       <c r="B617" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C617" s="6" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>91</v>
       </c>
       <c r="B618" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C618" s="6" t="s">
         <v>1240</v>
       </c>
-      <c r="C618" s="6" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>91</v>
       </c>
       <c r="B619" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C619" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="C619" s="6" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>95</v>
       </c>
       <c r="B620" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C620" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="C620" s="6" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>787</v>
       </c>
       <c r="B621" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C621" s="6" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>787</v>
       </c>
       <c r="B622" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C622" s="6" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>787</v>
       </c>
       <c r="B623" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C623" s="6" t="s">
         <v>1249</v>
       </c>
-      <c r="C623" s="6" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>787</v>
       </c>
       <c r="B624" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C624" s="6" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>787</v>
       </c>
       <c r="B625" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C625" s="6" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>787</v>
       </c>
       <c r="B626" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C626" s="6" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>787</v>
       </c>
       <c r="B627" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C627" s="6" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>787</v>
       </c>
       <c r="B628" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C628" s="6" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>787</v>
       </c>
       <c r="B629" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C629" s="6" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>787</v>
       </c>
       <c r="B630" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C630" s="6" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>787</v>
       </c>
       <c r="B631" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C631" s="5" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>787</v>
       </c>
       <c r="B632" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C632" s="6" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>787</v>
       </c>
       <c r="B633" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C633" s="6" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>787</v>
       </c>
       <c r="B634" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C634" s="6" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>787</v>
       </c>
       <c r="B635" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C635" s="5" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>787</v>
       </c>
       <c r="B636" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C636" s="6" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>787</v>
       </c>
       <c r="B637" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C637" s="6" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>787</v>
       </c>
       <c r="B638" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C638" s="6" t="s">
         <v>1279</v>
       </c>
-      <c r="C638" s="6" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>91</v>
       </c>
       <c r="B639" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C639" s="6" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>787</v>
       </c>
       <c r="B640" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C640" s="6" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>76</v>
       </c>
       <c r="B641" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C641" s="5" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>76</v>
       </c>
       <c r="B642" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C642" s="6" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>83</v>
       </c>
       <c r="B643" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C643" s="6" t="s">
         <v>1289</v>
-      </c>
-      <c r="C643" s="6" t="s">
-        <v>1290</v>
       </c>
     </row>
   </sheetData>
@@ -11396,7 +11396,7 @@
     <hyperlink ref="C609" r:id="rId24"/>
     <hyperlink ref="C610" r:id="rId25"/>
     <hyperlink ref="C611" r:id="rId26"/>
-    <hyperlink ref="C612" r:id="rId27" location="page=19"/>
+    <hyperlink ref="C612" r:id="rId27" location="page=19" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=19"/>
     <hyperlink ref="C46" r:id="rId28"/>
     <hyperlink ref="C614" r:id="rId29"/>
     <hyperlink ref="C615" r:id="rId30"/>

--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1285">
   <si>
     <t>https://www.cbr.ru/lk_uio/</t>
   </si>
@@ -2220,39 +2220,15 @@
     <t>Личный кабинет участника информационного обмена (УИО)?</t>
   </si>
   <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=664</t>
-  </si>
-  <si>
     <t>Полномочия МЧД?Приложение К?</t>
   </si>
   <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=675</t>
-  </si>
-  <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=669</t>
-  </si>
-  <si>
     <t>Xsd-схема list.xml</t>
   </si>
   <si>
     <t>XSD</t>
   </si>
   <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=672</t>
-  </si>
-  <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=667</t>
-  </si>
-  <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=652</t>
-  </si>
-  <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=572</t>
-  </si>
-  <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=474</t>
-  </si>
-  <si>
     <t>Инструкция по созданию доверенности (МЧД)?Приложение Н?</t>
   </si>
   <si>
@@ -2274,15 +2250,6 @@
     <t>Проверка ПО и сертификата?Приложение В?</t>
   </si>
   <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=433</t>
-  </si>
-  <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=408</t>
-  </si>
-  <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=407</t>
-  </si>
-  <si>
     <t>Приложение А?Коды событий?</t>
   </si>
   <si>
@@ -2292,9 +2259,6 @@
     <t>Правила обращения пользователя в ЕСПП?</t>
   </si>
   <si>
-    <t>http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=404</t>
-  </si>
-  <si>
     <t>НКО?</t>
   </si>
   <si>
@@ -2508,9 +2472,6 @@
     <t>http://cbr.ru/</t>
   </si>
   <si>
-    <t>Анкета соискателя?Создание ЛК?Как открыть Личный кабинет?</t>
-  </si>
-  <si>
     <t>portal5?Биврёст?</t>
   </si>
   <si>
@@ -3915,7 +3876,7 @@
     <t>Раздел "Машиночитаемая доверенность" (МЧД)?</t>
   </si>
   <si>
-    <t>19</t>
+    <t>Анкета соискателя?</t>
   </si>
 </sst>
 </file>
@@ -4283,18 +4244,18 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:C643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C517" workbookViewId="0">
-      <selection activeCell="C612" sqref="C612"/>
+    <sheetView tabSelected="1" topLeftCell="B579" workbookViewId="0">
+      <selection activeCell="D587" sqref="D587"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -4305,18 +4266,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -4327,29 +4288,29 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -4360,7 +4321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -4371,7 +4332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -4382,7 +4343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -4393,7 +4354,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -4404,7 +4365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -4415,7 +4376,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -4426,7 +4387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4437,7 +4398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -4448,7 +4409,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -4459,18 +4420,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="C16" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -4481,7 +4442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -4492,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -4503,7 +4464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -4514,7 +4475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -4525,18 +4486,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="C22" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -4547,7 +4508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -4558,7 +4519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -4569,7 +4530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -4580,29 +4541,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -4613,7 +4574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -4624,18 +4585,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -4646,18 +4607,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -4668,7 +4629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -4679,18 +4640,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -4701,7 +4662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -4712,7 +4673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -4723,7 +4684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -4734,7 +4695,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -4745,18 +4706,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -4767,7 +4728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -4778,7 +4739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -4789,18 +4750,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -4811,7 +4772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -4822,7 +4783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -4833,7 +4794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -4844,7 +4805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -4855,7 +4816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -4866,7 +4827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -4877,40 +4838,40 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="C56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -4921,7 +4882,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -4932,18 +4893,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="C59" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -4954,4495 +4915,4495 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>118</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>118</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>118</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>118</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>118</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>118</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>118</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>118</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>118</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>118</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>118</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>118</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>118</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>118</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>118</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>118</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>118</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>118</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>118</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>118</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>118</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>118</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>118</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>118</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>118</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>118</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>118</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>118</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>118</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>118</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>118</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>118</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>118</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>118</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>118</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>118</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>118</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>118</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>118</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>118</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>118</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>118</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>118</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>118</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>118</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>118</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>118</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>118</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>118</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>118</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>118</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>118</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>118</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>118</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>118</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>118</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>118</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>118</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>118</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>118</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>118</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>118</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>118</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>118</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>118</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>118</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>118</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>118</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>118</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>118</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>118</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>118</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>118</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>118</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>118</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>118</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>118</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>118</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>118</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>118</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>118</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>118</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>118</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>118</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>118</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>118</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>118</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>118</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>118</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>118</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>118</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>118</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>118</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>118</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>118</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>118</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>118</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>118</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>118</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>118</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>118</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>118</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>118</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>118</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>118</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>118</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>118</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>118</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>118</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>118</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>118</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>118</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>118</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>118</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>118</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>118</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>118</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>118</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>118</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>118</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>118</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>118</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>118</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>118</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>118</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>118</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>118</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>118</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>118</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>118</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>118</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>118</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>118</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>118</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>118</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>118</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>118</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>118</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>118</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>118</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>118</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>118</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>118</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>118</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>118</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>118</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>118</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>118</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>118</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>118</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>118</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>118</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>118</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>118</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>118</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>118</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>118</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>118</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>118</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>118</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>118</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>118</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>118</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>118</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>118</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>118</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>118</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>118</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>118</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>118</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>118</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>118</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>118</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>118</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>118</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>118</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>118</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>118</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>118</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>118</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>118</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>118</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>118</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>118</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>118</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>118</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>118</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>118</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>118</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>118</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>118</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>118</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>118</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>118</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>118</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>118</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>118</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>118</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>118</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>118</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>118</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>118</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>118</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>118</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>118</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>118</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>118</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>118</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>118</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>118</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>118</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>118</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>118</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>118</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>118</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>118</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>118</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>118</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>118</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>118</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>118</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>118</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>118</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>118</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>118</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>118</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>118</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>118</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>118</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>118</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>118</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>118</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>118</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>118</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>118</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>118</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>118</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>118</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>118</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>118</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>118</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>118</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>118</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>118</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>118</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>118</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>118</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>118</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>118</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>118</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>118</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>118</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>118</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>118</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>118</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>118</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>118</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>118</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>118</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>118</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>118</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>118</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>118</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>118</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>118</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>118</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>118</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>118</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>118</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>118</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>118</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>118</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>118</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>118</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>118</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>118</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>118</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>118</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>118</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>118</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>118</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>118</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>118</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>118</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>118</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>118</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>118</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>118</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>118</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>118</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>118</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>118</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>118</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>118</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>118</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>118</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>118</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>118</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>118</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>118</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>118</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>118</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>118</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>118</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>118</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>118</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>118</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>118</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>118</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>118</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>118</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>118</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>118</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>118</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>118</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>118</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>118</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>118</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>118</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>118</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>118</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>118</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>118</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>118</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>118</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>118</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>118</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>118</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>118</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>118</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>118</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>118</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>118</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>118</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>118</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>118</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>118</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>118</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>118</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>118</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>118</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>118</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>118</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>118</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>118</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>118</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>118</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>118</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>118</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>118</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>118</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>118</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>118</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>118</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>118</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>118</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>118</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>118</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>118</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>118</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>118</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>118</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>118</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>118</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>118</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>118</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>118</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>118</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>118</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>118</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>118</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>118</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>118</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>118</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>118</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>118</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>118</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>118</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>118</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>118</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>118</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>118</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>118</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>118</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>118</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>118</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>80</v>
       </c>
@@ -9453,7 +9414,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>80</v>
       </c>
@@ -9464,7 +9425,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>80</v>
       </c>
@@ -9475,7 +9436,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>521</v>
       </c>
@@ -9486,7 +9447,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>521</v>
       </c>
@@ -9497,7 +9458,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>521</v>
       </c>
@@ -9508,7 +9469,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>521</v>
       </c>
@@ -9519,7 +9480,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>521</v>
       </c>
@@ -9530,7 +9491,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>521</v>
       </c>
@@ -9541,7 +9502,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>521</v>
       </c>
@@ -9552,7 +9513,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>521</v>
       </c>
@@ -9563,7 +9524,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -9574,7 +9535,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>521</v>
       </c>
@@ -9585,7 +9546,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -9596,7 +9557,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>521</v>
       </c>
@@ -9607,7 +9568,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>521</v>
       </c>
@@ -9618,7 +9579,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>521</v>
       </c>
@@ -9629,7 +9590,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>521</v>
       </c>
@@ -9640,7 +9601,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>521</v>
       </c>
@@ -9651,7 +9612,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>521</v>
       </c>
@@ -9662,7 +9623,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>521</v>
       </c>
@@ -9673,7 +9634,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>521</v>
       </c>
@@ -9684,7 +9645,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>521</v>
       </c>
@@ -9695,7 +9656,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>521</v>
       </c>
@@ -9706,7 +9667,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>521</v>
       </c>
@@ -9717,7 +9678,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>521</v>
       </c>
@@ -9728,7 +9689,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>521</v>
       </c>
@@ -9739,7 +9700,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>521</v>
       </c>
@@ -9750,7 +9711,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>521</v>
       </c>
@@ -9761,7 +9722,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>521</v>
       </c>
@@ -9772,7 +9733,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -9783,7 +9744,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>521</v>
       </c>
@@ -9794,7 +9755,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>521</v>
       </c>
@@ -9805,7 +9766,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>521</v>
       </c>
@@ -9816,7 +9777,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>521</v>
       </c>
@@ -9827,7 +9788,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>521</v>
       </c>
@@ -9838,7 +9799,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>521</v>
       </c>
@@ -9849,7 +9810,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>521</v>
       </c>
@@ -9860,7 +9821,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>521</v>
       </c>
@@ -9871,7 +9832,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>521</v>
       </c>
@@ -9882,7 +9843,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>521</v>
       </c>
@@ -9893,7 +9854,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>521</v>
       </c>
@@ -9904,7 +9865,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>521</v>
       </c>
@@ -9915,7 +9876,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>521</v>
       </c>
@@ -9926,7 +9887,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>521</v>
       </c>
@@ -9937,7 +9898,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>521</v>
       </c>
@@ -9948,7 +9909,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>521</v>
       </c>
@@ -9959,7 +9920,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>521</v>
       </c>
@@ -9970,7 +9931,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>521</v>
       </c>
@@ -9981,7 +9942,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>521</v>
       </c>
@@ -9992,7 +9953,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>521</v>
       </c>
@@ -10003,7 +9964,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>521</v>
       </c>
@@ -10014,7 +9975,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>521</v>
       </c>
@@ -10025,7 +9986,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -10036,7 +9997,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>521</v>
       </c>
@@ -10047,7 +10008,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>521</v>
       </c>
@@ -10058,7 +10019,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>521</v>
       </c>
@@ -10069,7 +10030,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>521</v>
       </c>
@@ -10080,7 +10041,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>521</v>
       </c>
@@ -10091,7 +10052,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>521</v>
       </c>
@@ -10102,7 +10063,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>521</v>
       </c>
@@ -10113,7 +10074,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>521</v>
       </c>
@@ -10124,7 +10085,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>521</v>
       </c>
@@ -10135,7 +10096,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>521</v>
       </c>
@@ -10146,7 +10107,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>521</v>
       </c>
@@ -10157,7 +10118,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>521</v>
       </c>
@@ -10168,7 +10129,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>521</v>
       </c>
@@ -10179,7 +10140,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>521</v>
       </c>
@@ -10190,7 +10151,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>521</v>
       </c>
@@ -10201,7 +10162,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>521</v>
       </c>
@@ -10212,7 +10173,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>521</v>
       </c>
@@ -10223,7 +10184,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>521</v>
       </c>
@@ -10234,7 +10195,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>521</v>
       </c>
@@ -10245,7 +10206,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>521</v>
       </c>
@@ -10256,7 +10217,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>521</v>
       </c>
@@ -10267,7 +10228,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>521</v>
       </c>
@@ -10278,7 +10239,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>521</v>
       </c>
@@ -10289,7 +10250,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>521</v>
       </c>
@@ -10300,7 +10261,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>521</v>
       </c>
@@ -10311,7 +10272,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>521</v>
       </c>
@@ -10322,7 +10283,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>521</v>
       </c>
@@ -10333,7 +10294,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>521</v>
       </c>
@@ -10344,7 +10305,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>521</v>
       </c>
@@ -10355,7 +10316,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>521</v>
       </c>
@@ -10366,7 +10327,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>521</v>
       </c>
@@ -10377,7 +10338,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>521</v>
       </c>
@@ -10388,7 +10349,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>521</v>
       </c>
@@ -10399,7 +10360,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>521</v>
       </c>
@@ -10410,7 +10371,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>521</v>
       </c>
@@ -10421,7 +10382,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>521</v>
       </c>
@@ -10432,7 +10393,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>521</v>
       </c>
@@ -10443,7 +10404,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>521</v>
       </c>
@@ -10454,7 +10415,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>521</v>
       </c>
@@ -10465,7 +10426,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>521</v>
       </c>
@@ -10476,7 +10437,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>95</v>
       </c>
@@ -10487,18 +10448,18 @@
         <v>703</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>95</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="C564" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>79</v>
       </c>
@@ -10509,7 +10470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>95</v>
       </c>
@@ -10520,7 +10481,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>95</v>
       </c>
@@ -10531,7 +10492,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>95</v>
       </c>
@@ -10542,7 +10503,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>80</v>
       </c>
@@ -10553,18 +10514,18 @@
         <v>711</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>91</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>91</v>
       </c>
@@ -10575,7 +10536,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>91</v>
       </c>
@@ -10586,7 +10547,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>91</v>
       </c>
@@ -10597,7 +10558,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>91</v>
       </c>
@@ -10608,7 +10569,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>95</v>
       </c>
@@ -10619,769 +10580,769 @@
         <v>723</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>76</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="C576" s="6" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C576" s="6">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>76</v>
       </c>
       <c r="B577" t="s">
-        <v>743</v>
-      </c>
-      <c r="C577" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+        <v>735</v>
+      </c>
+      <c r="C577" s="6">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>90</v>
       </c>
       <c r="B578" t="s">
-        <v>744</v>
-      </c>
-      <c r="C578" s="6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+      <c r="C578" s="6">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B579" t="s">
-        <v>736</v>
-      </c>
-      <c r="C579" s="6" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+        <v>733</v>
+      </c>
+      <c r="C579" s="6">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>90</v>
       </c>
       <c r="B580" t="s">
-        <v>745</v>
-      </c>
-      <c r="C580" s="6" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+      <c r="C580" s="6">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>90</v>
       </c>
       <c r="B581" t="s">
-        <v>746</v>
-      </c>
-      <c r="C581" s="6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+        <v>738</v>
+      </c>
+      <c r="C581" s="6">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>81</v>
       </c>
       <c r="B582" t="s">
-        <v>747</v>
-      </c>
-      <c r="C582" s="6" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+        <v>739</v>
+      </c>
+      <c r="C582" s="6">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>81</v>
       </c>
       <c r="B583" t="s">
-        <v>748</v>
-      </c>
-      <c r="C583" s="6" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+        <v>740</v>
+      </c>
+      <c r="C583" s="6">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>95</v>
       </c>
       <c r="B584" t="s">
-        <v>749</v>
-      </c>
-      <c r="C584" s="6" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+      <c r="C584" s="6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>95</v>
       </c>
       <c r="B585" t="s">
-        <v>754</v>
-      </c>
-      <c r="C585" s="6" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+        <v>743</v>
+      </c>
+      <c r="C585" s="6">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>95</v>
       </c>
       <c r="B586" t="s">
-        <v>753</v>
-      </c>
-      <c r="C586" s="6" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+        <v>742</v>
+      </c>
+      <c r="C586" s="6">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>94</v>
       </c>
       <c r="B587" t="s">
-        <v>755</v>
-      </c>
-      <c r="C587" s="6" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+      <c r="C587" s="6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>91</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="C588" s="5" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>91</v>
       </c>
       <c r="B589" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="C589" s="6" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>91</v>
       </c>
       <c r="B590" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="C590" s="6" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>91</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>91</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="C592" s="5" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>91</v>
       </c>
       <c r="B593" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>91</v>
       </c>
       <c r="B594" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="C594" s="5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>91</v>
       </c>
       <c r="B595" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>91</v>
       </c>
       <c r="B596" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="C596" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>91</v>
       </c>
       <c r="B597" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="C597" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>91</v>
       </c>
       <c r="B598" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="C598" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>91</v>
       </c>
       <c r="B599" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>91</v>
       </c>
       <c r="B600" t="s">
+        <v>770</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>775</v>
+      </c>
+      <c r="B601" t="s">
+        <v>774</v>
+      </c>
+      <c r="C601" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>775</v>
+      </c>
+      <c r="B602" t="s">
+        <v>776</v>
+      </c>
+      <c r="C602" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>775</v>
+      </c>
+      <c r="B603" t="s">
+        <v>795</v>
+      </c>
+      <c r="C603" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>775</v>
+      </c>
+      <c r="B604" t="s">
+        <v>781</v>
+      </c>
+      <c r="C604" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>775</v>
+      </c>
+      <c r="B605" t="s">
+        <v>788</v>
+      </c>
+      <c r="C605" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="C600" s="5" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A601" t="s">
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>775</v>
+      </c>
+      <c r="B606" t="s">
+        <v>789</v>
+      </c>
+      <c r="C606" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>775</v>
+      </c>
+      <c r="B607" t="s">
+        <v>790</v>
+      </c>
+      <c r="C607" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>775</v>
+      </c>
+      <c r="B608" t="s">
+        <v>791</v>
+      </c>
+      <c r="C608" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>775</v>
+      </c>
+      <c r="B609" t="s">
+        <v>793</v>
+      </c>
+      <c r="C609" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>775</v>
+      </c>
+      <c r="B610" t="s">
+        <v>792</v>
+      </c>
+      <c r="C610" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="B601" t="s">
-        <v>786</v>
-      </c>
-      <c r="C601" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A602" t="s">
-        <v>787</v>
-      </c>
-      <c r="B602" t="s">
-        <v>788</v>
-      </c>
-      <c r="C602" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A603" t="s">
-        <v>787</v>
-      </c>
-      <c r="B603" t="s">
-        <v>807</v>
-      </c>
-      <c r="C603" s="6" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A604" t="s">
-        <v>787</v>
-      </c>
-      <c r="B604" t="s">
-        <v>793</v>
-      </c>
-      <c r="C604" s="6" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A605" t="s">
-        <v>787</v>
-      </c>
-      <c r="B605" t="s">
-        <v>800</v>
-      </c>
-      <c r="C605" s="6" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A606" t="s">
-        <v>787</v>
-      </c>
-      <c r="B606" t="s">
-        <v>801</v>
-      </c>
-      <c r="C606" s="6" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A607" t="s">
-        <v>787</v>
-      </c>
-      <c r="B607" t="s">
-        <v>802</v>
-      </c>
-      <c r="C607" s="6" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A608" t="s">
-        <v>787</v>
-      </c>
-      <c r="B608" t="s">
-        <v>803</v>
-      </c>
-      <c r="C608" s="6" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A609" t="s">
-        <v>787</v>
-      </c>
-      <c r="B609" t="s">
-        <v>805</v>
-      </c>
-      <c r="C609" s="6" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A610" t="s">
-        <v>787</v>
-      </c>
-      <c r="B610" t="s">
-        <v>804</v>
-      </c>
-      <c r="C610" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>91</v>
       </c>
       <c r="B611" t="s">
-        <v>828</v>
+        <v>1284</v>
       </c>
       <c r="C611" s="6" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="B612" t="s">
+        <v>797</v>
+      </c>
+      <c r="C612" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>798</v>
+      </c>
+      <c r="B613" t="s">
+        <v>816</v>
+      </c>
+      <c r="C613" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
         <v>809</v>
       </c>
-      <c r="C612" s="6" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A613" t="s">
+      <c r="B614" t="s">
+        <v>811</v>
+      </c>
+      <c r="C614" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="B613" t="s">
-        <v>829</v>
-      </c>
-      <c r="C613" s="5" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A614" t="s">
-        <v>821</v>
-      </c>
-      <c r="B614" t="s">
-        <v>823</v>
-      </c>
-      <c r="C614" s="6" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="B615" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="C615" s="6" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>91</v>
       </c>
       <c r="B616" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="C616" s="6" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>91</v>
       </c>
       <c r="B617" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="C617" s="6" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>91</v>
       </c>
       <c r="B618" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="C618" s="6" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>91</v>
       </c>
       <c r="B619" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="C619" s="6" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>95</v>
       </c>
       <c r="B620" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C620" s="6" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>775</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C621" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>775</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C622" s="6" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>775</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C623" s="6" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>775</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C624" s="6" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>775</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C625" s="6" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>775</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C626" s="6" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>775</v>
+      </c>
+      <c r="B627" t="s">
         <v>1243</v>
       </c>
-      <c r="C620" s="6" t="s">
+      <c r="C627" s="6" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>775</v>
+      </c>
+      <c r="B628" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A621" t="s">
-        <v>787</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C621" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A622" t="s">
-        <v>787</v>
-      </c>
-      <c r="B622" t="s">
+      <c r="C628" s="6" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>775</v>
+      </c>
+      <c r="B629" t="s">
         <v>1247</v>
       </c>
-      <c r="C622" s="6" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A623" t="s">
-        <v>787</v>
-      </c>
-      <c r="B623" t="s">
+      <c r="C629" s="6" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>775</v>
+      </c>
+      <c r="B630" t="s">
         <v>1248</v>
       </c>
-      <c r="C623" s="6" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A624" t="s">
-        <v>787</v>
-      </c>
-      <c r="B624" t="s">
+      <c r="C630" s="6" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>775</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C631" s="5" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>775</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C632" s="6" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>775</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C633" s="6" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>775</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C634" s="6" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>775</v>
+      </c>
+      <c r="B635" t="s">
         <v>1251</v>
       </c>
-      <c r="C624" s="6" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A625" t="s">
-        <v>787</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C625" s="6" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A626" t="s">
-        <v>787</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C626" s="6" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A627" t="s">
-        <v>787</v>
-      </c>
-      <c r="B627" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C627" s="6" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A628" t="s">
-        <v>787</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C628" s="6" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A629" t="s">
-        <v>787</v>
-      </c>
-      <c r="B629" t="s">
+      <c r="C635" s="5" t="s">
         <v>1260</v>
       </c>
-      <c r="C629" s="6" t="s">
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>775</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C636" s="6" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>775</v>
+      </c>
+      <c r="B637" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A630" t="s">
-        <v>787</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C630" s="6" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A631" t="s">
-        <v>787</v>
-      </c>
-      <c r="B631" t="s">
+      <c r="C637" s="6" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>775</v>
+      </c>
+      <c r="B638" t="s">
         <v>1265</v>
       </c>
-      <c r="C631" s="5" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A632" t="s">
-        <v>787</v>
-      </c>
-      <c r="B632" t="s">
+      <c r="C638" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="C632" s="6" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A633" t="s">
-        <v>787</v>
-      </c>
-      <c r="B633" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C633" s="6" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A634" t="s">
-        <v>787</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C634" s="6" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A635" t="s">
-        <v>787</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C635" s="5" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A636" t="s">
-        <v>787</v>
-      </c>
-      <c r="B636" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C636" s="6" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A637" t="s">
-        <v>787</v>
-      </c>
-      <c r="B637" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C637" s="6" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A638" t="s">
-        <v>787</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C638" s="6" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>91</v>
       </c>
       <c r="B639" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="C639" s="6" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="B640" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="C640" s="6" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>76</v>
       </c>
       <c r="B641" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="C641" s="5" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>76</v>
       </c>
       <c r="B642" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
       <c r="C642" s="6" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>83</v>
       </c>
       <c r="B643" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="C643" s="6" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C613"/>
   <hyperlinks>
-    <hyperlink ref="C576" r:id="rId1" location="page=664"/>
-    <hyperlink ref="C577" r:id="rId2" location="page=675"/>
-    <hyperlink ref="C578" r:id="rId3" location="page=669"/>
-    <hyperlink ref="C579" r:id="rId4" location="page=672"/>
-    <hyperlink ref="C580" r:id="rId5" location="page=667"/>
-    <hyperlink ref="C581" r:id="rId6" location="page=652"/>
-    <hyperlink ref="C582" r:id="rId7" location="page=572"/>
-    <hyperlink ref="C583" r:id="rId8" location="page=474"/>
-    <hyperlink ref="C584" r:id="rId9" location="page=433"/>
-    <hyperlink ref="C585" r:id="rId10" location="page=408"/>
-    <hyperlink ref="C586" r:id="rId11" location="page=407"/>
-    <hyperlink ref="C587" r:id="rId12" location="page=404"/>
+    <hyperlink ref="C576" r:id="rId1" location="page=664" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=664"/>
+    <hyperlink ref="C577" r:id="rId2" location="page=675" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=675"/>
+    <hyperlink ref="C578" r:id="rId3" location="page=669" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=669"/>
+    <hyperlink ref="C579" r:id="rId4" location="page=672" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=672"/>
+    <hyperlink ref="C580" r:id="rId5" location="page=667" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=667"/>
+    <hyperlink ref="C581" r:id="rId6" location="page=652" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=652"/>
+    <hyperlink ref="C582" r:id="rId7" location="page=572" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=572"/>
+    <hyperlink ref="C583" r:id="rId8" location="page=474" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=474"/>
+    <hyperlink ref="C584" r:id="rId9" location="page=433" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=433"/>
+    <hyperlink ref="C585" r:id="rId10" location="page=408" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=408"/>
+    <hyperlink ref="C586" r:id="rId11" location="page=407" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=407"/>
+    <hyperlink ref="C587" r:id="rId12" location="page=404" display="http://cbr.ru/Content/Document/File/85699/instruction.pdf#page=404"/>
     <hyperlink ref="C589" r:id="rId13"/>
     <hyperlink ref="C590" r:id="rId14"/>
     <hyperlink ref="C597" r:id="rId15"/>

--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -450,9 +450,6 @@
     <t>http://www.cbr.ru/registries/rcb/ecb/</t>
   </si>
   <si>
-    <t>Респонденты?ФСН?</t>
-  </si>
-  <si>
     <t>http://cbr.ru/statistics/reporting/st_dir-inv/</t>
   </si>
   <si>
@@ -1351,6 +1348,9 @@
   </si>
   <si>
     <t>Ссылки РП</t>
+  </si>
+  <si>
+    <t>Раздел Респонденты ФСН?Перечень респондентов по формам федерального статистического наблюдения?</t>
   </si>
 </sst>
 </file>
@@ -1763,8 +1763,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,10 +1790,10 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -1812,7 +1812,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -1823,7 +1823,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -1944,10 +1944,10 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2010,10 +2010,10 @@
         <v>91</v>
       </c>
       <c r="B22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" t="s">
         <v>219</v>
-      </c>
-      <c r="C22" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
@@ -2076,7 +2076,7 @@
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>33</v>
@@ -2098,7 +2098,7 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>2</v>
@@ -2120,7 +2120,7 @@
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>30</v>
@@ -2131,7 +2131,7 @@
         <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>31</v>
@@ -2164,7 +2164,7 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>20</v>
@@ -2211,7 +2211,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>40</v>
@@ -2274,10 +2274,10 @@
         <v>91</v>
       </c>
       <c r="B46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
         <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>52</v>
@@ -2362,7 +2362,7 @@
         <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>47</v>
@@ -2373,7 +2373,7 @@
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>11</v>
@@ -2384,7 +2384,7 @@
         <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" t="s">
         <v>109</v>
@@ -2417,7 +2417,7 @@
         <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
         <v>114</v>
@@ -2483,7 +2483,7 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
         <v>125</v>
@@ -2494,7 +2494,7 @@
         <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
         <v>126</v>
@@ -2505,7 +2505,7 @@
         <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>28</v>
@@ -2560,7 +2560,7 @@
         <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>135</v>
@@ -2604,10 +2604,10 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
+        <v>442</v>
+      </c>
+      <c r="C76" t="s">
         <v>142</v>
-      </c>
-      <c r="C76" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2615,18 +2615,18 @@
         <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
         <v>144</v>
-      </c>
-      <c r="C77" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" s="14">
         <v>668</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" s="14">
         <v>679</v>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" s="14">
         <v>673</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" s="14">
         <v>671</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="14">
         <v>656</v>
@@ -2678,10 +2678,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="14">
         <v>576</v>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="14">
         <v>478</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C85" s="14">
         <v>436</v>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="14">
         <v>411</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C87" s="14">
         <v>410</v>
@@ -2736,10 +2736,10 @@
         <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2747,10 +2747,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2758,10 +2758,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,10 +2769,10 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2780,10 +2780,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2791,10 +2791,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,10 +2802,10 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2813,10 +2813,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,10 +2824,10 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,10 +2835,10 @@
         <v>91</v>
       </c>
       <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,10 +2846,10 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2857,10 +2857,10 @@
         <v>91</v>
       </c>
       <c r="B99" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,120 +2868,120 @@
         <v>91</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" t="s">
         <v>193</v>
       </c>
-      <c r="B102" t="s">
-        <v>194</v>
-      </c>
       <c r="C102" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B107" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,43 +2989,43 @@
         <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B112" t="s">
-        <v>232</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="B113" t="s">
-        <v>227</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B114" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3033,10 +3033,10 @@
         <v>91</v>
       </c>
       <c r="B115" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3044,10 +3044,10 @@
         <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3055,10 +3055,10 @@
         <v>91</v>
       </c>
       <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,10 +3066,10 @@
         <v>91</v>
       </c>
       <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3077,208 +3077,208 @@
         <v>95</v>
       </c>
       <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B130" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3286,21 +3286,21 @@
         <v>91</v>
       </c>
       <c r="B138" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B139" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3308,10 +3308,10 @@
         <v>76</v>
       </c>
       <c r="B140" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3319,10 +3319,10 @@
         <v>76</v>
       </c>
       <c r="B141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3330,18 +3330,18 @@
         <v>83</v>
       </c>
       <c r="B142" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C143" s="12">
         <v>10</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C144" s="13">
         <v>10</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C145" s="12">
         <v>11</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C146" s="9">
         <v>12</v>
@@ -3382,10 +3382,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C147" s="8">
         <v>12</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C148" s="9">
         <v>12</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C149" s="8">
         <v>12</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C150" s="9">
         <v>13</v>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C151" s="8">
         <v>15</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C152" s="9">
         <v>16</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C153" s="8">
         <v>19</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C154" s="9">
         <v>20</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C155" s="8">
         <v>21</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C156" s="9">
         <v>23</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C157" s="8">
         <v>23</v>
@@ -3503,10 +3503,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C158" s="9">
         <v>25</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C159" s="8">
         <v>27</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C160" s="9">
         <v>27</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C161" s="8">
         <v>27</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C162" s="9">
         <v>30</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C163" s="8">
         <v>30</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C164" s="9">
         <v>31</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C165" s="8">
         <v>32</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C166" s="9">
         <v>33</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C167" s="8">
         <v>36</v>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C168" s="9">
         <v>38</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C169" s="8">
         <v>39</v>
@@ -3635,10 +3635,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C170" s="9">
         <v>41</v>
@@ -3646,10 +3646,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C171" s="8">
         <v>44</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C172" s="9">
         <v>44</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C173" s="8">
         <v>47</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C174" s="9">
         <v>49</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C175" s="8">
         <v>51</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C176" s="9">
         <v>51</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C177" s="8">
         <v>53</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C178" s="9">
         <v>56</v>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C179" s="8">
         <v>62</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C180" s="9">
         <v>62</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C181" s="8">
         <v>70</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C182" s="9">
         <v>73</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C183" s="8">
         <v>76</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C184" s="9">
         <v>80</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C185" s="8">
         <v>83</v>
@@ -3811,10 +3811,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C186" s="9">
         <v>86</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C187" s="8">
         <v>90</v>
@@ -3833,10 +3833,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C188" s="9">
         <v>98</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C189" s="8">
         <v>106</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C190" s="9">
         <v>108</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C191" s="8">
         <v>109</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C192" s="9">
         <v>111</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C193" s="8">
         <v>112</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C194" s="9">
         <v>118</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C195" s="8">
         <v>125</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C196" s="9">
         <v>127</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C197" s="8">
         <v>127</v>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C198" s="9">
         <v>130</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C199" s="8">
         <v>130</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C200" s="9">
         <v>136</v>
@@ -3976,10 +3976,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C201" s="8">
         <v>138</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C202" s="9">
         <v>138</v>
@@ -3998,10 +3998,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C203" s="8">
         <v>139</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C204" s="9">
         <v>139</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C205" s="8">
         <v>142</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C206" s="9">
         <v>143</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C207" s="8">
         <v>149</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C208" s="9">
         <v>154</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C209" s="8">
         <v>158</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C210" s="9">
         <v>160</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C211" s="8">
         <v>163</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C212" s="9">
         <v>166</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C213" s="8">
         <v>169</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C214" s="9">
         <v>176</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C215" s="8">
         <v>180</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C216" s="9">
         <v>184</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C217" s="8">
         <v>189</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C218" s="9">
         <v>197</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C219" s="8">
         <v>198</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C220" s="9">
         <v>203</v>
@@ -4196,10 +4196,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C221" s="8">
         <v>206</v>
@@ -4207,10 +4207,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C222" s="9">
         <v>209</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C223" s="8">
         <v>213</v>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C224" s="9">
         <v>220</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C225" s="8">
         <v>227</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C226" s="9">
         <v>234</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C227" s="8">
         <v>241</v>
@@ -4273,10 +4273,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C228" s="9">
         <v>245</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C229" s="8">
         <v>250</v>
@@ -4295,10 +4295,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C230" s="9">
         <v>254</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C231" s="8">
         <v>258</v>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C232" s="9">
         <v>262</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C233" s="8">
         <v>265</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C234" s="9">
         <v>269</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C235" s="8">
         <v>275</v>
@@ -4361,10 +4361,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C236" s="9">
         <v>279</v>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C237" s="8">
         <v>287</v>
@@ -4383,10 +4383,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C238" s="9">
         <v>295</v>
@@ -4394,10 +4394,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C239" s="8">
         <v>304</v>
@@ -4405,10 +4405,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C240" s="9">
         <v>306</v>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C241" s="8">
         <v>310</v>
@@ -4427,10 +4427,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C242" s="9">
         <v>312</v>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C243" s="8">
         <v>312</v>
@@ -4449,10 +4449,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C244" s="9">
         <v>318</v>
@@ -4460,10 +4460,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C245" s="8">
         <v>318</v>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C246" s="9">
         <v>321</v>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C247" s="8">
         <v>328</v>
@@ -4493,10 +4493,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C248" s="9">
         <v>331</v>
@@ -4504,10 +4504,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C249" s="8">
         <v>334</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C250" s="9">
         <v>336</v>
@@ -4526,10 +4526,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C251" s="8">
         <v>338</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C252" s="9">
         <v>344</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C253" s="8">
         <v>344</v>
@@ -4559,10 +4559,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C254" s="9">
         <v>349</v>
@@ -4570,10 +4570,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C255" s="8">
         <v>352</v>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C256" s="9">
         <v>355</v>
@@ -4592,10 +4592,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C257" s="8">
         <v>356</v>
@@ -4603,10 +4603,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C258" s="9">
         <v>358</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C259" s="8">
         <v>358</v>
@@ -4625,10 +4625,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C260" s="9">
         <v>361</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C261" s="8">
         <v>361</v>
@@ -4647,10 +4647,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C262" s="9">
         <v>363</v>
@@ -4658,10 +4658,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C263" s="8">
         <v>365</v>
@@ -4669,10 +4669,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C264" s="9">
         <v>369</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C265" s="8">
         <v>370</v>
@@ -4691,10 +4691,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C266" s="9">
         <v>374</v>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C267" s="8">
         <v>374</v>
@@ -4713,10 +4713,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C268" s="9">
         <v>375</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C269" s="8">
         <v>376</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C270" s="9">
         <v>377</v>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C271" s="8">
         <v>380</v>
@@ -4757,10 +4757,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C272" s="9">
         <v>380</v>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C273" s="8">
         <v>381</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C274" s="9">
         <v>382</v>
@@ -4790,10 +4790,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C275" s="8">
         <v>383</v>
@@ -4801,10 +4801,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C276" s="9">
         <v>387</v>
@@ -4812,10 +4812,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C277" s="8">
         <v>388</v>
@@ -4823,10 +4823,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C278" s="9">
         <v>389</v>
@@ -4834,10 +4834,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C279" s="8">
         <v>392</v>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C280" s="9">
         <v>395</v>
@@ -4856,10 +4856,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C281" s="8">
         <v>401</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C282" s="9">
         <v>401</v>
@@ -4878,10 +4878,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C283" s="8">
         <v>402</v>
@@ -4889,10 +4889,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C284" s="9">
         <v>407</v>
@@ -4900,10 +4900,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C285" s="8">
         <v>407</v>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C286" s="9">
         <v>407</v>
@@ -4922,10 +4922,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C287" s="8">
         <v>409</v>
